--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6285B5A6-7D25-40DA-84D5-F4E733E6798C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C0D449-1BA9-4A16-B5F8-DE7647F1E5ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -53,45 +53,15 @@
     <t>ASML</t>
   </si>
   <si>
-    <t>BNB</t>
-  </si>
-  <si>
-    <t>BR50</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>DOGE</t>
-  </si>
-  <si>
-    <t>EQQQ</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>EXXT</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>IEEM</t>
-  </si>
-  <si>
-    <t>IWDE</t>
-  </si>
-  <si>
     <t>LULU</t>
   </si>
   <si>
     <t>MA</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>META</t>
   </si>
   <si>
@@ -117,6 +87,36 @@
   </si>
   <si>
     <t>Last Closing Price</t>
+  </si>
+  <si>
+    <t>BNB-USD</t>
+  </si>
+  <si>
+    <t>BR50.MI</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>DOGE-USD</t>
+  </si>
+  <si>
+    <t>EQQQ.DE</t>
+  </si>
+  <si>
+    <t>ETH-USD</t>
+  </si>
+  <si>
+    <t>EXXT.DE</t>
+  </si>
+  <si>
+    <t>IEEM.MI</t>
+  </si>
+  <si>
+    <t>IWDE.MI</t>
+  </si>
+  <si>
+    <t>MC.PA</t>
   </si>
 </sst>
 </file>
@@ -169,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,28 +507,28 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,7 +539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -546,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -557,9 +561,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>857.4</v>
@@ -568,9 +572,9 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>21.855</v>
@@ -579,9 +583,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>111968.63</v>
@@ -590,9 +594,9 @@
         <v>2.1571000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.21529999999999999</v>
@@ -601,9 +605,9 @@
         <v>40270</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>489.6</v>
@@ -612,9 +616,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>4459.34</v>
@@ -623,9 +627,9 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>194.5</v>
@@ -634,9 +638,9 @@
         <v>10.114800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>211.64</v>
@@ -645,9 +649,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>42.725000000000001</v>
@@ -656,9 +660,9 @@
         <v>1.9418</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>101.57</v>
@@ -667,9 +671,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>205.08</v>
@@ -678,9 +682,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>590.48</v>
@@ -689,9 +693,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>513.1</v>
@@ -700,9 +704,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>738.7</v>
@@ -711,9 +715,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>338.84</v>
@@ -722,9 +726,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>77.92</v>
@@ -733,9 +737,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>180.17</v>
@@ -744,9 +748,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>70.06</v>
@@ -755,9 +759,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>408.4</v>
@@ -766,9 +770,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>345.98</v>
@@ -777,9 +781,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>349.86</v>

--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C0D449-1BA9-4A16-B5F8-DE7647F1E5ED}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDE2CE9-D45F-4B74-B5A5-EFEB0E41255E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>345.98</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">

--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDE2CE9-D45F-4B74-B5A5-EFEB0E41255E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA821CF-5D9A-4F85-A54D-A2B5D6DF7AD8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
@@ -169,10 +169,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +503,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +642,7 @@
         <v>211.64</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +774,7 @@
         <v>345.98</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">

--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA821CF-5D9A-4F85-A54D-A2B5D6DF7AD8}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E99EFB-E854-4BC6-ABBA-CF82B71E2D63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
@@ -169,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +507,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +778,7 @@
         <v>345.98</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">

--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E99EFB-E854-4BC6-ABBA-CF82B71E2D63}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F57A741-003E-497E-8486-F9B976F7C70E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ticker</t>
   </si>
@@ -117,19 +117,30 @@
   </si>
   <si>
     <t>MC.PA</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Google Sans Text"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -171,13 +183,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}" name="Tabella1" displayName="Tabella1" ref="A1:C25" totalsRowShown="0">
-  <autoFilter ref="A1:C25" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}" name="Tabella1" displayName="Tabella1" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{52AF3544-F4D4-4BF1-87F9-41B34E32DA81}" name="Ticker"/>
     <tableColumn id="2" xr3:uid="{9F61902A-05BD-4021-A13A-77B740D52D61}" name="Last Closing Price"/>
@@ -504,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE3AA8F-9124-4468-A343-B791517653F8}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -539,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -550,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -561,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -572,7 +580,7 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -583,7 +591,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -594,7 +602,7 @@
         <v>2.1571000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -605,7 +613,7 @@
         <v>40270</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -616,7 +624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -627,7 +635,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -638,7 +646,7 @@
         <v>10.114800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -649,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -660,7 +668,7 @@
         <v>1.9418</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -671,7 +679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -682,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -693,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -704,7 +712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -715,7 +723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -726,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -737,7 +745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -748,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -759,7 +767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -770,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -781,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -790,6 +798,28 @@
       </c>
       <c r="C25">
         <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>240.5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/08_portfolio_management/portfolio_example.xlsx
+++ b/08_portfolio_management/portfolio_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebc00a0f969ad489/Programmazione/github/FromZeroToQuant/FromZeroToQuant-/08_portfolio_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F57A741-003E-497E-8486-F9B976F7C70E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{188DC5AC-8163-4171-86F6-6ECD92B5BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8724CB-CF57-4281-B957-1ECA8B74CA8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E60A3A5F-F7BE-4D4D-94AB-E4A3C6B1FB4C}"/>
   </bookViews>
@@ -122,14 +122,14 @@
     <t>CRM</t>
   </si>
   <si>
-    <t>Path</t>
+    <t>PATH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +140,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Google Sans Text"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,14 +165,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -184,12 +253,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}" name="Tabella1" displayName="Tabella1" ref="A1:C27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}" name="Tabella1" displayName="Tabella1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:C27" xr:uid="{A555A333-8A24-49B4-AD3D-BB36A75F5A1D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{52AF3544-F4D4-4BF1-87F9-41B34E32DA81}" name="Ticker"/>
-    <tableColumn id="2" xr3:uid="{9F61902A-05BD-4021-A13A-77B740D52D61}" name="Last Closing Price"/>
-    <tableColumn id="3" xr3:uid="{FDF79C92-70C9-45FD-8750-2775A1008771}" name="Somma di Q.ty"/>
+    <tableColumn id="1" xr3:uid="{52AF3544-F4D4-4BF1-87F9-41B34E32DA81}" name="Ticker" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F61902A-05BD-4021-A13A-77B740D52D61}" name="Last Closing Price" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FDF79C92-70C9-45FD-8750-2775A1008771}" name="Somma di Q.ty" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,310 +584,311 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>232.56</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>168.58</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>654.29999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>857.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>13.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>21.855</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>111968.63</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.1571000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.21529999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>40270</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>489.6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4459.34</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>194.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>10.114800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>211.64</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>42.725000000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.9418</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>101.57</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>205.08</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>590.48</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>513.1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>738.7</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>338.84</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>77.92</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>180.17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>70.06</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>408.4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>345.98</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>349.86</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>240.5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>30</v>
       </c>
     </row>
